--- a/biology/Botanique/Vesce_jargeau/Vesce_jargeau.xlsx
+++ b/biology/Botanique/Vesce_jargeau/Vesce_jargeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vesce craque, Vesce jargeau
-La Vesce jargeau, Vesce craque (Vicia cracca) est une plante herbacée vivace grimpante de la famille des Fabacées, de la sous-famille des Faboïdées[1].
-Cette plante est commune dans toute l'Europe[2], ainsi que dans la vallée du fleuve Saint-Laurent au Québec. Marie-Victorin mentionne dans sa Flore laurentienne que Vicia cracca est naturalisée d’Europe et « bien établie »[3].
+La Vesce jargeau, Vesce craque (Vicia cracca) est une plante herbacée vivace grimpante de la famille des Fabacées, de la sous-famille des Faboïdées.
+Cette plante est commune dans toute l'Europe, ainsi que dans la vallée du fleuve Saint-Laurent au Québec. Marie-Victorin mentionne dans sa Flore laurentienne que Vicia cracca est naturalisée d’Europe et « bien établie ».
 </t>
         </is>
       </c>
@@ -513,62 +525,243 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Vicia cracca a été décrite par le naturaliste suédois Carl von Linné en 1753[4].
-Étymologie
-Vicia cracca est le nom latin classique des vesces, venant de vincio, « je m’attache », et de cracca, le qualificatif latin donné par le botaniste prélinnéen Rivinus,  repris par Linné pour nommer cette vesce spécifique. L’origine et la signification de cracca sont incertaines[5]. Pline l’aurait utilisé pour désigner le jargeau ou une espèce voisine. L’origine ultimement grecque (αρακος) du qualificatif cracca rapproche la vesce de la gesse ou du pois chiche[6].
-Liste des sous-espèces
-Selon Catalogue of Life                                   (21 juil. 2013)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Vicia cracca a été décrite par le naturaliste suédois Carl von Linné en 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vicia cracca est le nom latin classique des vesces, venant de vincio, « je m’attache », et de cracca, le qualificatif latin donné par le botaniste prélinnéen Rivinus,  repris par Linné pour nommer cette vesce spécifique. L’origine et la signification de cracca sont incertaines. Pline l’aurait utilisé pour désigner le jargeau ou une espèce voisine. L’origine ultimement grecque (αρακος) du qualificatif cracca rapproche la vesce de la gesse ou du pois chiche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 juil. 2013) :
 sous-espèce Vicia cracca subsp. cracca
-sous-espèce Vicia cracca subsp. incana
-Synonymes
-Cracca tenuifolia (Roth) Gren. &amp; Godr.
+sous-espèce Vicia cracca subsp. incana</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cracca tenuifolia (Roth) Gren. &amp; Godr.
 Vicia antiqua Grossh.
 Vicia boissieri Freyn
 Vicia brachytropis Kar. &amp; Kir.
 Vicia tenuifolia Roth (préféré par UICN)
 Vicia dalmatica A.Kern.
-Vicia tenuifolia Roth subspecies boissieri (Freyn) Radhzi
-Noms vernaculaires
-Vesce craque, appelée également Vesce de Cracovie, Pois à crapauds ou Vesce à épis. Au Québec où elle s’appelle « vesce jargeau »[8], le Père Louis-Marie rapporte les vocables de « sauvage ou multiflore »[9].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Vesce_jargeau</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Vicia tenuifolia Roth subspecies boissieri (Freyn) Radhzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vesce craque, appelée également Vesce de Cracovie, Pois à crapauds ou Vesce à épis. Au Québec où elle s’appelle « vesce jargeau », le Père Louis-Marie rapporte les vocables de « sauvage ou multiflore ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Habitus
 			Inflorescences
 			Vicia cracca var. tenuifolia
 			Gousses et graines - Muséum de Toulouse
-Cette dicotylédone pousse à partir d’une graine de l’année précédente tombée parmi les graminées ou autres plantes. Elle s’appuie sur ces plantes pour chercher le soleil et porter sa floraison d’un bleu violacé. Grâce à son système racinaire résistant qui fixe l’azote de l’air, elle domine parfois certaines prairies, y fructifiant quelques années. Elle pousse des vrilles s’enroulant à droite[10] à l’extrémité de ses feuilles sans queue qui mesurent entre six et douze centimètres, occasionnellement plus; les feuilles sont formées de huit à douze paires de folioles. Les vrilles forment avec les plantes auxquelles elle s’agrippe une structure solide lui permettant de se hisser au détriment des plantes qui la soutenaient et qui s'étiolent faute de soleil. Cette vesce forme des entrelacs qui ressemblent à des tapis. Elle s’amasse densément et de manière compacte, laissant peu passer la lumière. Seules ses inflorescences en épis de la même longueur que les feuilles dominent la masse verte. Les fleurs, toujours en nombre pair, poussent toutes du même côté de la tige qui les porte et elles s’ouvrent de façon séquentielle en commençant par la base de l’épi bleu, passant lorsqu’elles sont fermées du violacé pourpre au bleu brillant quand elles s’ouvrent qui s’affadit quand elles fanent, avant de laisser place aux cosses de 4 à 12 mm renfermant quelques graines sphériques qui développent une texture côtelée en séchant, typiques de plusieurs Faboideae.
-Caractéristiques
-Organes reproducteurs
+Cette dicotylédone pousse à partir d’une graine de l’année précédente tombée parmi les graminées ou autres plantes. Elle s’appuie sur ces plantes pour chercher le soleil et porter sa floraison d’un bleu violacé. Grâce à son système racinaire résistant qui fixe l’azote de l’air, elle domine parfois certaines prairies, y fructifiant quelques années. Elle pousse des vrilles s’enroulant à droite à l’extrémité de ses feuilles sans queue qui mesurent entre six et douze centimètres, occasionnellement plus; les feuilles sont formées de huit à douze paires de folioles. Les vrilles forment avec les plantes auxquelles elle s’agrippe une structure solide lui permettant de se hisser au détriment des plantes qui la soutenaient et qui s'étiolent faute de soleil. Cette vesce forme des entrelacs qui ressemblent à des tapis. Elle s’amasse densément et de manière compacte, laissant peu passer la lumière. Seules ses inflorescences en épis de la même longueur que les feuilles dominent la masse verte. Les fleurs, toujours en nombre pair, poussent toutes du même côté de la tige qui les porte et elles s’ouvrent de façon séquentielle en commençant par la base de l’épi bleu, passant lorsqu’elles sont fermées du violacé pourpre au bleu brillant quand elles s’ouvrent qui s’affadit quand elles fanent, avant de laisser place aux cosses de 4 à 12 mm renfermant quelques graines sphériques qui développent une texture côtelée en séchant, typiques de plusieurs Faboideae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : bleu
 Période de floraison : juillet-septembre
 Inflorescence : racème simple
@@ -578,40 +771,80 @@
 Fruit : Gousse, 10–25 mm de long, brunissant à maturité.
 Dissémination : barochore
 Données d’après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
-Économie
-L’infestation de la plante peut quelquefois avoir des conséquences économiques pour certains producteurs de céréales notamment. Elle est considérée comme nuisible à plusieurs productions agricoles mais bénéfique à d’autres pour la valeur de son fourrage riche en protéines au même titre que le trèfle ou la luzerne. Ses inflorescences produisent un nectar abondant apprécié des abeilles. La graine de Vesce craque peut être réduite en farine dont on fait des galettes nourrissantes, mal digérées par certains.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vesce_jargeau</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’infestation de la plante peut quelquefois avoir des conséquences économiques pour certains producteurs de céréales notamment. Elle est considérée comme nuisible à plusieurs productions agricoles mais bénéfique à d’autres pour la valeur de son fourrage riche en protéines au même titre que le trèfle ou la luzerne. Ses inflorescences produisent un nectar abondant apprécié des abeilles. La graine de Vesce craque peut être réduite en farine dont on fait des galettes nourrissantes, mal digérées par certains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_jargeau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentaire
-Les jolie fleurs mauve-bleu de la vicia cracca sont comestible et délicieuse parfois amer parfois sucrée. On peut les ajouter à de la salade, sur le dessus d’une soupe comme décoration comestible ou encore dans une recette à la mijoteuse elle sera utilisée comme épice. Les graines qui à l’interieur des cosses peuvent être écraser pour faire de la farine[1].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jolie fleurs mauve-bleu de la vicia cracca sont comestible et délicieuse parfois amer parfois sucrée. On peut les ajouter à de la salade, sur le dessus d’une soupe comme décoration comestible ou encore dans une recette à la mijoteuse elle sera utilisée comme épice. Les graines qui à l’interieur des cosses peuvent être écraser pour faire de la farine.
 </t>
         </is>
       </c>
